--- a/2000_Furusawa/data/raw/NeV79.xlsx
+++ b/2000_Furusawa/data/raw/NeV79.xlsx
@@ -46,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -67,6 +68,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -218,10 +220,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D20"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -259,261 +261,233 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>62.1</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>32.9</v>
+        <v>42.9</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>130</v>
+        <v>84.2</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>466</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>62.2</v>
+        <v>84.6</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>32.9</v>
+        <v>45.5</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>129</v>
+        <v>78.6</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>467</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>80</v>
+        <v>96.9</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42.9</v>
+        <v>52.4</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>84.2</v>
+        <v>68.1</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>631</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>84.6</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45.5</v>
+        <v>59.6</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>78.6</v>
+        <v>57.5</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>675</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>96.9</v>
+        <v>146</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>52.4</v>
+        <v>80.6</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>68.1</v>
+        <v>38.4</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>793</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>59.6</v>
+        <v>86.8</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>57.5</v>
+        <v>35.7</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>922</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>80.6</v>
+        <v>97.1</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>38.4</v>
+        <v>31.1</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1310</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>86.8</v>
+        <v>99.2</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>35.7</v>
+        <v>30.2</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1430</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>97.1</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>31.1</v>
+        <v>24.7</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1620</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>99.2</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>30.2</v>
+        <v>21.7</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1660</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>24.7</v>
+        <v>18.2</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>2050</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>21.7</v>
+        <v>17.5</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2260</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>18.2</v>
+        <v>12.8</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2680</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>287</v>
+        <v>528</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>17.5</v>
+        <v>7.71</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2790</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>373</v>
+        <v>569</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>12.8</v>
+        <v>7.1</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3810</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>528</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>281</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>5820</v>
+      <c r="A18" s="3" t="n">
+        <v>693</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>369</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>8250</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>569</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>303</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>6390</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
-        <v>693</v>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>369</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
